--- a/docs/sprint 1 - cambios/Resultaods Criterios de Aceptacion.xlsx
+++ b/docs/sprint 1 - cambios/Resultaods Criterios de Aceptacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\La_U\Ing SW II\Proyecto Final\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\NetBeansProjects\xtremescrump\docs\sprint 1 - cambios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Acceptance Criteria" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>√</t>
   </si>
@@ -47,21 +47,6 @@
     <t>Yo como scrum master deseo crear el proyecto Extreme Scrum</t>
   </si>
   <si>
-    <t>Crear proyecto</t>
-  </si>
-  <si>
-    <t>Agregar al team scrum al proyecto</t>
-  </si>
-  <si>
-    <t>Se prensentará una panatalla para la creación del proyecto, nombre y fecha de incio</t>
-  </si>
-  <si>
-    <t>Se prensentará una panatalla para agregar los mails de los miembros del equipo</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Se presentará una pantalla vacia en la que se puedan agregar historias de usuario nuevas</t>
   </si>
   <si>
@@ -90,13 +75,91 @@
   </si>
   <si>
     <t>Se presentara un Error sino se ingresa todos los datos</t>
+  </si>
+  <si>
+    <t>Crear la pantalla de proyecto</t>
+  </si>
+  <si>
+    <t>Crear una tabla que muestre los proyectos</t>
+  </si>
+  <si>
+    <t>Desplegar un diálogo  para la creación de nuevos proyectos</t>
+  </si>
+  <si>
+    <t>Aparecerá un botón "Nuevo Proyecto", que permitirá crear nuevos proyectos.</t>
+  </si>
+  <si>
+    <t>Se prensentará una pantalla para la administración de proyectos.</t>
+  </si>
+  <si>
+    <t>Se presentará una tabla con los proyectos creados : nombre, descripción, fecha inicio, fecha fin</t>
+  </si>
+  <si>
+    <t>Si no existen proyectos creados, se presentará un mensaje en la tabla que diga: 'No existen registro'</t>
+  </si>
+  <si>
+    <t>Cada registro tendrá botones de edición y eliminación, en la última columna de la tabla llamada 'Opciones'</t>
+  </si>
+  <si>
+    <t>Al hacer clic en el botón 'Nuevo Proyecto' se desplegará un diálogo con el formato de historia de usuario.</t>
+  </si>
+  <si>
+    <t>En el diálogo se mostrará campos de: Nombre, Descripción, Fecha Inicio, Fecha Fin.</t>
+  </si>
+  <si>
+    <t>El diálogo tendrá botones de guadar y cancelar.</t>
+  </si>
+  <si>
+    <t>Guardar Proyecto</t>
+  </si>
+  <si>
+    <t>Todos los campos requeridos deben ser ingresados para poder guardar el proyecto.</t>
+  </si>
+  <si>
+    <t>Los campos requeridos, aparecerán con * de color rojo.</t>
+  </si>
+  <si>
+    <t>Si se intenta guardar el proyecto, aparecerán mensajes de error en la esquina superior derecha de la pantalla, mostrando el campo requerido que no ha sido ingresado.</t>
+  </si>
+  <si>
+    <t>Al guardar el proyecto, se refrescará la tabla mostrando el proyecto ingresado.</t>
+  </si>
+  <si>
+    <t>Editar proyecto existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al hacer clic en el botón editar, que es un botón con el signo de un lápiz, aparece un diálogo con el mismo formato de nuevo proyecto, pero con los campos llenos del proyecto seleccionado.</t>
+  </si>
+  <si>
+    <t>Al tratar de guardar los cambios de la edición, se validará que los campos requeridos esten llenos. Mostrando mensajes de error de los campos requeridos no ingresados.</t>
+  </si>
+  <si>
+    <t>Si se cancela la edición, los datos quedarán en la tabla como antes de la edición.</t>
+  </si>
+  <si>
+    <t>Cuando se guarde la edición, se refrescará la tabla mostrando en el proyecto seleccionado, los nuevos datos.</t>
+  </si>
+  <si>
+    <t>Al hacer clic en el botón eliminar, que es un botón con el signo de un tacho de basura, aparece un diálogo que pregunta la confirmación de la eliminación. Esta confirmación tiene los botones SI y NO.</t>
+  </si>
+  <si>
+    <t>Eliminar proyecto existente</t>
+  </si>
+  <si>
+    <t>Al hacer clic en SI, aparece un mensaje de 'Error en la eliminación del proyecto ' si dicho proyecto tiene historias de usuario ligadas.</t>
+  </si>
+  <si>
+    <t>Al hacer clic en SI, aparece un mensaje de 'Eliminación correcta' si dicho proyecto NO tiene historias de usuario ligadas, y se actualiza la tabla de proyectos, desapareciendo el proyecto seleccionado.</t>
+  </si>
+  <si>
+    <t>Al hacer clic en NO, se cierra el diálogo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,30 +183,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -153,18 +198,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -179,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -319,15 +358,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,83 +461,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34"/>
-    <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38"/>
-    <cellStyle name="40% - Énfasis4" xfId="4" builtinId="43"/>
+  <cellStyles count="4">
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="40% - Énfasis4" xfId="3" builtinId="43"/>
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -691,64 +864,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H27" sqref="H25:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -759,267 +934,561 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="45">
+    <mergeCell ref="A24:D27"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A20:D23"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A16:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="A8:D10"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A10:D12"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
